--- a/resources/tools/wordlist_E-J/lessons/lesson-7.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-7.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44,15 +44,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -368,1368 +436,1368 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>to sing</t>
+          <t>(my) older sister</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>歌う|うたう</t>
+          <t>姉|あね</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>to put on (a hat)</t>
+          <t>apartment</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>かぶる</t>
+          <t>アパート</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>to get to know</t>
+          <t>younger sister</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>知る|しる</t>
+          <t>妹|いもうと</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>I know</t>
+          <t>song</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>知っています|しっています</t>
+          <t>歌|うた</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>I do not know</t>
+          <t>grandfather; old man</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>知りません|しりません</t>
+          <t>おじいさん</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>to live</t>
+          <t>younger brother</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>住む|すむ</t>
+          <t>弟|おとうと</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>to put on (items below your waist)</t>
+          <t>man</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>はく</t>
+          <t>男の人|おとこのひと</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>to gain weight</t>
+          <t>older brother</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>太る|ふとる</t>
+          <t>お兄さん|おにいさん</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>to be on the heavy side</t>
+          <t>older sister</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>太っています|ふとっています</t>
+          <t>お姉さん|おねえさん</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>to put on (glasses)</t>
+          <t>grandmother; old woman</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>(めがねを)かける</t>
+          <t>おばあさん</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>to put on (clothes above your waist)</t>
+          <t>woman</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>着る|きる</t>
+          <t>女の人|おんなのひと</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>to work for</t>
+          <t>company</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>勤める|つとめる</t>
+          <t>会社|かいしゃ</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>to lose weight</t>
+          <t>family</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>やせる</t>
+          <t>家族|かぞく</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>to be thin</t>
+          <t>hair</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>やせています</t>
+          <t>髪|かみ</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>to get married</t>
+          <t>brothers and sisters</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>結婚する|けっこんする</t>
+          <t>兄弟|きょうだい</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>hair</t>
+          <t>mouth</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>髪|かみ</t>
+          <t>口|くち</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>brothers and sisters</t>
+          <t>country; place of origin</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>兄弟|きょうだい</t>
+          <t>国|くに</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>mouth</t>
+          <t>car</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>口|くち</t>
+          <t>車|くるま</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>country; place of origin</t>
+          <t>game</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>国|くに</t>
+          <t>ゲーム</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>car</t>
+          <t>convenience store</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>車|くるま</t>
+          <t>コンビニ</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>game</t>
+          <t>club activity</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ゲーム</t>
+          <t>サークル</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>convenience store</t>
+          <t>cafeteria; dining commons</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>コンビニ</t>
+          <t>食堂|しょくどう</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>club activity</t>
+          <t>(my) father</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>サークル</t>
+          <t>父|ちち</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>cafeteria; dining commons</t>
+          <t>DVD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>食堂|しょくどう</t>
+          <t>ディーブイディー</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>(my) father</t>
+          <t>(my) mother</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>父|ちち</t>
+          <t>母|はは</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DVD</t>
+          <t>eye</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ディーブイディー</t>
+          <t>目|め</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>(my) mother</t>
+          <t>glasses</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>母|はは</t>
+          <t>眼鏡|めがね</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>eye</t>
+          <t>bright; smart; clever</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>目|め</t>
+          <t>頭がいい|あたまがいい</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>glasses</t>
+          <t>cute</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>眼鏡|めがね</t>
+          <t>かわいい</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>hair</t>
+          <t>tall (stature)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>髪|かみ</t>
+          <t>背が高い|せがたかい</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ear</t>
+          <t>short (stature)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>耳|みみ</t>
+          <t>背が低い|せがひくい</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>mouth</t>
+          <t>long</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>口|くち</t>
+          <t>長い|ながい</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>hand</t>
+          <t>fast</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>手|て</t>
+          <t>速い|はやい</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>neck</t>
+          <t>short (length)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>首|くび</t>
+          <t>短い|みじかい</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>tooth</t>
+          <t>kind</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>歯|は</t>
+          <t>親切|しんせつ(な)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>finger</t>
+          <t>convenient</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>指|ゆび</t>
+          <t>便利|べんり(な)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>nose</t>
+          <t>to sing</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>鼻|はな</t>
+          <t>歌う|うたう</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>eye</t>
+          <t>to put on (a hat)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>目|め</t>
+          <t>かぶる</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>face</t>
+          <t>to get to know</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>顔|かお</t>
+          <t>知る|しる</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>head</t>
+          <t>I know</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>頭|あたま</t>
+          <t>知っています|しっています</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>shoulder</t>
+          <t>I do not know</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>肩|かた</t>
+          <t>知りません|しりません</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>chest</t>
+          <t>to live</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>胸|むね</t>
+          <t>住む|すむ</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>back (of body)</t>
+          <t>to put on (items below your waist)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>背中|せなか</t>
+          <t>はく</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>belly; stomach</t>
+          <t>to gain weight</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>おなか</t>
+          <t>太る|ふとる</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>bottom; buttocks</t>
+          <t>to be on the heavy side</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>おしり</t>
+          <t>太っています|ふとっています</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>foot</t>
+          <t>to put on (glasses)</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>足|あし</t>
+          <t>(めがねを)かける</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>(my) older sister</t>
+          <t>to put on (clothes above your waist)</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>姉|あね</t>
+          <t>着る|きる</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>apartment</t>
+          <t>to work for</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>アパート</t>
+          <t>勤める|つとめる</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>younger sister</t>
+          <t>to lose weight</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>妹|いもうと</t>
+          <t>やせる</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>song</t>
+          <t>to be thin</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>歌|うた</t>
+          <t>やせています</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>grandfather; old man</t>
+          <t>to get married</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>おじいさん</t>
+          <t>結婚する|けっこんする</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>younger brother</t>
+          <t>..., but</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>弟|おとうと</t>
+          <t>～が</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>man</t>
+          <t>not...anything</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>男の人|おとこのひと</t>
+          <t>何も|なにも</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>older brother</t>
+          <t>[counter for people]</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>お兄さん|おにいさん</t>
+          <t>～人|～にん</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>older sister</t>
+          <t>one person</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>お姉さん|おねえさん</t>
+          <t>一人|ひとり</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>grandmother; old woman</t>
+          <t>two people</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>おばあさん</t>
+          <t>二人|ふたり</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>woman</t>
+          <t>nothing in particular</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>女の人|おんなのひと</t>
+          <t>別に|べつに</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>Hello? (used on the phone)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>会社|かいしゃ</t>
+          <t>もしもし</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>of course</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>家族|かぞく</t>
+          <t>もちろん</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>bright; smart; clever</t>
+          <t>if you like</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>頭がいい|あたまがいい</t>
+          <t>よかったら</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>cute</t>
+          <t>hair</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>かわいい</t>
+          <t>髪|かみ</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>tall (stature)</t>
+          <t>ear</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>背が高い|せがたかい</t>
+          <t>耳|みみ</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>short (stature)</t>
+          <t>mouth</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>背が低い|せがひくい</t>
+          <t>口|くち</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>hand</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>長い|ながい</t>
+          <t>手|て</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>fast</t>
+          <t>neck</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>速い|はやい</t>
+          <t>首|くび</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>short (length)</t>
+          <t>tooth</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>短い|みじかい</t>
+          <t>歯|は</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>kind</t>
+          <t>finger</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>親切|しんせつ(な)</t>
+          <t>指|ゆび</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>convenient</t>
+          <t>nose</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>便利|べんり(な)</t>
+          <t>鼻|はな</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>one person</t>
+          <t>eye</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>一人|ひとり</t>
+          <t>目|め</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>two people</t>
+          <t>face</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>二人|ふたり</t>
+          <t>顔|かお</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>three people</t>
+          <t>head</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>三人|さんにん</t>
+          <t>頭|あたま</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>four people</t>
+          <t>shoulder</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>四人|よにん</t>
+          <t>肩|かた</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>five people</t>
+          <t>chest</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>五人|ごにん</t>
+          <t>胸|むね</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>six people</t>
+          <t>back (of body)</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>六人|ろくにん</t>
+          <t>背中|せなか</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>seven people</t>
+          <t>belly; stomach</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>七人|しちにん／ななにん</t>
+          <t>おなか</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>eight people</t>
+          <t>bottom; buttocks</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>八人|はちにん</t>
+          <t>おしり</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>nine people</t>
+          <t>foot</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>九人|きゅうにん</t>
+          <t>足|あし</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ten people</t>
+          <t>one person</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>十人|じゅうにん</t>
+          <t>一人|ひとり</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>..., but</t>
+          <t>two people</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>～が</t>
+          <t>二人|ふたり</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>not...anything</t>
+          <t>three people</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>何も|なにも</t>
+          <t>三人|さんにん</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>[counter for people]</t>
+          <t>four people</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>～人|～にん</t>
+          <t>四人|よにん</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>one person</t>
+          <t>five people</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>一人|ひとり</t>
+          <t>五人|ごにん</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>two people</t>
+          <t>six people</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>二人|ふたり</t>
+          <t>六人|ろくにん</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>nothing in particular</t>
+          <t>seven people</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>別に|べつに</t>
+          <t>七人|しちにん／ななにん</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Hello? (used on the phone)</t>
+          <t>eight people</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>もしもし</t>
+          <t>八人|はちにん</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>of course</t>
+          <t>nine people</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>もちろん</t>
+          <t>九人|きゅうにん</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>if you like</t>
+          <t>ten people</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>よかったら</t>
+          <t>十人|じゅうにん</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>father (formal)</t>
+          <t>Tokyo</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>父|ちち</t>
+          <t>東京|とうきょう</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>father</t>
+          <t>Kyoko</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>お父さん|おとうさん</t>
+          <t>京子|きょうこ</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>father and mother</t>
+          <t>Kyoto</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>父母|ふぼ</t>
+          <t>京都|きょうと</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>grandfather</t>
+          <t>to go to the capital</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>祖父|そふ</t>
+          <t>上京する|じょうきょうする</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>mother (formal)</t>
+          <t>child</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>母|はは</t>
+          <t>子供|こども</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>mother</t>
+          <t>girl</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>お母さん|おかあさん</t>
+          <t>女の子|おんなのこ</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>mother tongue</t>
+          <t>boy</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>母語|ぼご</t>
+          <t>男の子|おとこのこ</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>grandmother</t>
+          <t>electronic dictionary</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>祖母|そぼ</t>
+          <t>電子辞書|でんしじしょ</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Japanese (language)</t>
+          <t>small</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>日本語|にほんご</t>
+          <t>小さい|ちいさい</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>English (language)</t>
+          <t>elementary school</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>英語|えいご</t>
+          <t>小学校|しょうがっこう</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>honorific expressions</t>
+          <t>elementary school student</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>敬語|けいご</t>
+          <t>小学生|しょうがくせい</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>to meet</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>文学|ぶんがく</t>
+          <t>会う|あう</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>composition</t>
+          <t>company</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>作文|さくぶん</t>
+          <t>会社|かいしゃ</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>letter; character</t>
+          <t>office worker</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>文字|もじ</t>
+          <t>会社員|かいしゃいん</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>culture</t>
+          <t>meeting</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>文化|ぶんか</t>
+          <t>会議|かいぎ</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>grammar</t>
+          <t>church</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>文法|ぶんぽう</t>
+          <t>教会|きょうかい</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Tokyo</t>
+          <t>shrine</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>東京|とうきょう</t>
+          <t>神社|じんじゃ</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Kyoko</t>
+          <t>society</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>京子|きょうこ</t>
+          <t>社会|しゃかい</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Kyoto</t>
+          <t>entry to a company</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>京都|きょうと</t>
+          <t>入社|にゅうしゃ</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>to go to the capital</t>
+          <t>father (formal)</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>上京する|じょうきょうする</t>
+          <t>父|ちち</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>father</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>子供|こども</t>
+          <t>お父さん|おとうさん</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>girl</t>
+          <t>father and mother</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>女の子|おんなのこ</t>
+          <t>父母|ふぼ</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>boy</t>
+          <t>grandfather</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>男の子|おとこのこ</t>
+          <t>祖父|そふ</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>electronic dictionary</t>
+          <t>mother (formal)</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>電子辞書|でんしじしょ</t>
+          <t>母|はは</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>small</t>
+          <t>mother</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>小さい|ちいさい</t>
+          <t>お母さん|おかあさん</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>elementary school</t>
+          <t>mother tongue</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>小学校|しょうがっこう</t>
+          <t>母語|ぼご</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>elementary school student</t>
+          <t>grandmother</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>小学生|しょうがくせい</t>
+          <t>祖母|そぼ</t>
         </is>
       </c>
     </row>
@@ -1856,96 +1924,96 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>to meet</t>
+          <t>Japanese (language)</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>会う|あう</t>
+          <t>日本語|にほんご</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>English (language)</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>会社|かいしゃ</t>
+          <t>英語|えいご</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>office worker</t>
+          <t>honorific expressions</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>会社員|かいしゃいん</t>
+          <t>敬語|けいご</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>meeting</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>会議|かいぎ</t>
+          <t>文学|ぶんがく</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>church</t>
+          <t>composition</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>教会|きょうかい</t>
+          <t>作文|さくぶん</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>shrine</t>
+          <t>letter; character</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>神社|じんじゃ</t>
+          <t>文字|もじ</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>society</t>
+          <t>culture</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>社会|しゃかい</t>
+          <t>文化|ぶんか</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>entry to a company</t>
+          <t>grammar</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>入社|にゅうしゃ</t>
+          <t>文法|ぶんぽう</t>
         </is>
       </c>
     </row>
@@ -2046,6 +2114,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-7.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-7.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -2114,6 +2114,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/resources/tools/wordlist_E-J/lessons/lesson-7.xlsx
+++ b/resources/tools/wordlist_E-J/lessons/lesson-7.xlsx
@@ -2032,7 +2032,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>going home</t>
+          <t>returning to one's country</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
